--- a/BackTest/2020-01-26 BackTest SOC.xlsx
+++ b/BackTest/2020-01-26 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-382346.1986</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-462758.565</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>10.2</v>
@@ -523,7 +523,7 @@
         <v>-488001.2861</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>10.16</v>
@@ -562,7 +562,7 @@
         <v>-462400.2737</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>10.12</v>
@@ -601,7 +601,7 @@
         <v>-479224.7674</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>10.19</v>
@@ -640,7 +640,7 @@
         <v>-468664.5526</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>10.11</v>
@@ -679,7 +679,7 @@
         <v>-468664.5526</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>10.15</v>
@@ -718,7 +718,7 @@
         <v>-475195.2379</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>10.15</v>
@@ -757,7 +757,7 @@
         <v>-431923.9682</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>10.14</v>
@@ -796,7 +796,7 @@
         <v>-431923.9682</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>10.19</v>
@@ -835,7 +835,7 @@
         <v>-488009.7616</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>10.19</v>
@@ -874,7 +874,7 @@
         <v>-532679.7466000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>10.15</v>
@@ -913,7 +913,7 @@
         <v>-466111.0987000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>10.12</v>
@@ -952,7 +952,7 @@
         <v>-497741.2134000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>10.17</v>
@@ -991,7 +991,7 @@
         <v>-477959.6352000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>10.14</v>
@@ -1030,7 +1030,7 @@
         <v>-501332.2696000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>10.19</v>
@@ -1069,7 +1069,7 @@
         <v>-474255.4735000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>10.13</v>
@@ -1108,7 +1108,7 @@
         <v>-493304.3446000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>10.19</v>
@@ -1147,7 +1147,7 @@
         <v>-484483.1951000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>10.12</v>
@@ -1186,7 +1186,7 @@
         <v>-493398.3334000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>10.19</v>
@@ -1225,7 +1225,7 @@
         <v>-501814.6765000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>10.14</v>
@@ -1264,7 +1264,7 @@
         <v>-508571.6465</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>10.13</v>
@@ -1303,7 +1303,7 @@
         <v>-501329.3551</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>10.12</v>
@@ -1342,7 +1342,7 @@
         <v>-479881.1707</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>10.13</v>
@@ -1381,7 +1381,7 @@
         <v>-463720.4436</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>10.16</v>
@@ -1420,7 +1420,7 @@
         <v>-469763.6272</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>10.17</v>
@@ -1459,7 +1459,7 @@
         <v>-486029.352</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>10.14</v>
@@ -1498,7 +1498,7 @@
         <v>-479715.9120731109</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>10.13</v>
@@ -1537,7 +1537,7 @@
         <v>-495770.4570731109</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>10.15</v>
@@ -1576,7 +1576,7 @@
         <v>-464714.6325731109</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>10.12</v>
@@ -1615,7 +1615,7 @@
         <v>-432949.026573111</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>10.15</v>
@@ -1654,7 +1654,7 @@
         <v>-446719.446273111</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>10.16</v>
@@ -1693,7 +1693,7 @@
         <v>-460768.006573111</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>10.13</v>
@@ -1732,7 +1732,7 @@
         <v>-451432.214773111</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>10.12</v>
@@ -1771,7 +1771,7 @@
         <v>-494969.996573111</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>10.16</v>
@@ -1810,7 +1810,7 @@
         <v>-477615.826773111</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>10.13</v>
@@ -1849,7 +1849,7 @@
         <v>-456129.106373111</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>10.14</v>
@@ -1888,7 +1888,7 @@
         <v>-471814.873673111</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>10.17</v>
@@ -1927,7 +1927,7 @@
         <v>-479822.257273111</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>10.15</v>
@@ -1966,7 +1966,7 @@
         <v>-431342.913373111</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>10.14</v>
@@ -2005,7 +2005,7 @@
         <v>-461852.5445731111</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>10.15</v>
@@ -2044,7 +2044,7 @@
         <v>-432342.208673111</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>10.13</v>
@@ -2083,7 +2083,7 @@
         <v>-442963.2614731111</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>10.14</v>
@@ -2122,7 +2122,7 @@
         <v>-435439.7053731111</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>10.13</v>
@@ -2161,7 +2161,7 @@
         <v>-449050.9386731111</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>10.16</v>
@@ -2200,7 +2200,7 @@
         <v>-464832.6561731111</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>10.15</v>
@@ -2239,7 +2239,7 @@
         <v>-457401.9619731111</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>10.14</v>
@@ -2278,7 +2278,7 @@
         <v>-473037.7822731111</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>10.16</v>
@@ -2317,7 +2317,7 @@
         <v>-363664.4457731111</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>10.13</v>
@@ -2356,7 +2356,7 @@
         <v>-444736.0561731111</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>10.16</v>
@@ -2395,7 +2395,7 @@
         <v>-437140.7411731111</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>10.14</v>
@@ -2434,7 +2434,7 @@
         <v>-423800.6693731111</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>10.15</v>
@@ -2473,7 +2473,7 @@
         <v>-423800.6693731111</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>10.17</v>
@@ -2512,7 +2512,7 @@
         <v>-454235.5823731111</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>10.17</v>
@@ -2551,7 +2551,7 @@
         <v>-435005.4393731111</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>10.13</v>
@@ -2590,7 +2590,7 @@
         <v>-445865.0909731111</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>10.15</v>
@@ -2629,7 +2629,7 @@
         <v>-439373.2038731111</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>10.12</v>
@@ -2668,7 +2668,7 @@
         <v>-447430.3385731111</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>10.14</v>
@@ -2707,7 +2707,7 @@
         <v>-430863.7412731111</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>10.12</v>
@@ -2746,7 +2746,7 @@
         <v>-457575.5963731111</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>10.17</v>
@@ -2785,7 +2785,7 @@
         <v>-469665.2700731111</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>10.16</v>
@@ -2824,7 +2824,7 @@
         <v>-505285.3233731111</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>10.15</v>
@@ -2863,7 +2863,7 @@
         <v>-495161.8093731111</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>10.11</v>
@@ -2902,7 +2902,7 @@
         <v>-437055.556773111</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>10.14</v>
@@ -2941,7 +2941,7 @@
         <v>-481554.566273111</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>10.17</v>
@@ -2980,7 +2980,7 @@
         <v>-537999.688073111</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>10.16</v>
@@ -3019,7 +3019,7 @@
         <v>-537999.688073111</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>10.13</v>
@@ -3058,7 +3058,7 @@
         <v>-533777.0838731111</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>10.13</v>
@@ -3097,7 +3097,7 @@
         <v>-533777.0838731111</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>10.17</v>
@@ -3136,7 +3136,7 @@
         <v>-549546.8721731111</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>10.17</v>
@@ -3175,7 +3175,7 @@
         <v>-541896.6177731111</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>10.11</v>
@@ -3214,7 +3214,7 @@
         <v>-473888.9429731111</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>10.12</v>
@@ -3253,7 +3253,7 @@
         <v>-536924.5046731111</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>10.16</v>
@@ -3292,7 +3292,7 @@
         <v>-536924.5046731111</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>10.14</v>
@@ -3331,7 +3331,7 @@
         <v>-552328.3059731112</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>10.14</v>
@@ -3370,7 +3370,7 @@
         <v>-532764.1274731111</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>10.12</v>
@@ -3409,7 +3409,7 @@
         <v>-574155.4635731111</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>10.16</v>
@@ -3448,7 +3448,7 @@
         <v>-504512.1946731111</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>10.12</v>
@@ -3487,7 +3487,7 @@
         <v>-510605.9719731111</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>10.16</v>
@@ -3526,7 +3526,7 @@
         <v>-500883.9401731111</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>10.14</v>
@@ -3565,7 +3565,7 @@
         <v>-512538.1803731111</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>10.17</v>
@@ -3604,7 +3604,7 @@
         <v>-566520.8307360522</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>10.15</v>
@@ -3643,7 +3643,7 @@
         <v>-508978.9569360522</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>10.11</v>
@@ -3682,7 +3682,7 @@
         <v>-517312.2773360523</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>10.18</v>
@@ -3721,7 +3721,7 @@
         <v>-524708.6970360522</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>10.15</v>
@@ -3760,7 +3760,7 @@
         <v>-524708.6970360522</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>10.12</v>
@@ -3799,7 +3799,7 @@
         <v>-518424.7618360522</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>10.12</v>
@@ -3838,7 +3838,7 @@
         <v>-511173.7611360523</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>10.15</v>
@@ -3877,7 +3877,7 @@
         <v>-524470.6445360522</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>10.17</v>
@@ -3916,7 +3916,7 @@
         <v>-447724.6829360523</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>10.13</v>
@@ -3955,7 +3955,7 @@
         <v>-616056.7579360523</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>10.3</v>
@@ -3994,7 +3994,7 @@
         <v>-551616.2935360523</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>10.14</v>
@@ -4033,7 +4033,7 @@
         <v>-543104.0174360523</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>10.25</v>
@@ -4072,7 +4072,7 @@
         <v>-550435.9525360523</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>10.28</v>
@@ -4111,7 +4111,7 @@
         <v>-530652.2268360524</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>10.18</v>
@@ -4150,7 +4150,7 @@
         <v>-517637.8408360524</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>10.24</v>
@@ -4189,7 +4189,7 @@
         <v>-532382.3894360524</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>10.26</v>
@@ -4228,7 +4228,7 @@
         <v>-532382.3894360524</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>10.15</v>
@@ -4267,7 +4267,7 @@
         <v>-516244.5179360524</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>10.15</v>
@@ -4306,7 +4306,7 @@
         <v>-508973.3945360524</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>10.17</v>
@@ -4345,7 +4345,7 @@
         <v>-516413.5228360524</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>10.27</v>
@@ -4384,7 +4384,7 @@
         <v>-510224.3916360524</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>10.17</v>
@@ -4423,7 +4423,7 @@
         <v>-502603.2351360524</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>10.22</v>
@@ -4462,9 +4462,11 @@
         <v>-512387.1253360524</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>10.25</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4499,9 +4501,11 @@
         <v>-525031.5860360524</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>10.21</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4536,9 +4540,11 @@
         <v>-504708.8621360525</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>10.17</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4573,9 +4579,11 @@
         <v>-434021.3760360525</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4610,9 +4618,11 @@
         <v>-423231.0778360525</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4647,9 +4657,11 @@
         <v>-416284.9452360524</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10.25</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4684,9 +4696,11 @@
         <v>-397246.3752360524</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4721,9 +4735,11 @@
         <v>-484564.4239360524</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>10.3</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4758,9 +4774,11 @@
         <v>-476540.1539360524</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>10.22</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4795,9 +4813,11 @@
         <v>-529938.5264360524</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4832,9 +4852,11 @@
         <v>-504589.8382360524</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>10.14</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4869,9 +4891,11 @@
         <v>-478726.2029360524</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4906,9 +4930,11 @@
         <v>-494976.6590360524</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4943,9 +4969,11 @@
         <v>-479573.2076360524</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4980,9 +5008,11 @@
         <v>-397948.4158360524</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -5017,9 +5047,11 @@
         <v>-542896.6257360524</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>10.26</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -5054,9 +5086,11 @@
         <v>-467546.3769360524</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -5091,9 +5125,11 @@
         <v>-546535.9110360524</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>10.21</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5128,9 +5164,11 @@
         <v>-343481.6301360524</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5165,9 +5203,11 @@
         <v>-369778.4683360524</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>10.23</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5202,9 +5242,11 @@
         <v>-327292.6040360524</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>10.13</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5239,9 +5281,11 @@
         <v>-320576.5171360524</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>10.22</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5276,7 +5320,7 @@
         <v>-326424.1599360523</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>10.24</v>
@@ -5315,9 +5359,11 @@
         <v>-316183.8781360523</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>10.21</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5352,9 +5398,11 @@
         <v>-342764.5462360524</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5389,9 +5437,11 @@
         <v>-331297.0256360524</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>10.14</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5426,9 +5476,11 @@
         <v>-339989.9859360523</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5463,9 +5515,11 @@
         <v>-307573.4984360524</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5500,9 +5554,11 @@
         <v>-330259.7646360524</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5537,9 +5593,11 @@
         <v>-340306.1007360524</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>10.26</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5574,9 +5632,11 @@
         <v>-320597.2393360524</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>10.23</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5611,9 +5671,11 @@
         <v>-351687.9529360524</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>10.25</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5648,9 +5710,11 @@
         <v>-327543.1301360524</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>10.21</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5685,9 +5749,11 @@
         <v>-337863.0173360524</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>10.23</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5722,9 +5788,11 @@
         <v>-323202.4709360524</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5759,9 +5827,11 @@
         <v>-323202.4709360524</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5796,9 +5866,11 @@
         <v>-323202.4709360524</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5833,9 +5905,11 @@
         <v>-332087.9483360524</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5870,9 +5944,11 @@
         <v>-306907.6489360523</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>10.24</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5907,9 +5983,11 @@
         <v>-329657.6946360524</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>10.3</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5944,9 +6022,11 @@
         <v>-323404.6045360524</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>10.23</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5981,9 +6061,11 @@
         <v>-331361.2165360524</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -6018,9 +6100,11 @@
         <v>-338940.4536360524</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>10.22</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -6055,9 +6139,11 @@
         <v>-330106.1737360524</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>10.14</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -6092,9 +6178,11 @@
         <v>-323405.3057360524</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -6129,9 +6217,11 @@
         <v>-316688.0159360524</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>10.18</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -6166,9 +6256,11 @@
         <v>-309441.0652360524</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>10.22</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -6203,9 +6295,11 @@
         <v>-302194.7065360524</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>10.23</v>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -6240,9 +6334,11 @@
         <v>-311513.4371360524</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6277,9 +6373,11 @@
         <v>-301568.6418360524</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6314,9 +6412,11 @@
         <v>-309708.8928360524</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6351,9 +6451,11 @@
         <v>-316621.5093360524</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>10.18</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6388,9 +6490,11 @@
         <v>-275933.1121302271</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>10.14</v>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6425,9 +6529,11 @@
         <v>-268278.7925302272</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>10.17</v>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6462,9 +6568,11 @@
         <v>-279173.6178302272</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>10.21</v>
+      </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6499,9 +6607,11 @@
         <v>-229697.7932302272</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>10.13</v>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6536,9 +6646,11 @@
         <v>-223240.3227302272</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>10.17</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6573,9 +6685,11 @@
         <v>-223240.3227302272</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>10.24</v>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6610,9 +6724,11 @@
         <v>-231332.2114302272</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>10.24</v>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6647,9 +6763,11 @@
         <v>-238150.4493302272</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>10.21</v>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6684,9 +6802,11 @@
         <v>-230294.2282302272</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6721,9 +6841,11 @@
         <v>-223597.3660302272</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6758,9 +6880,11 @@
         <v>-230215.3190302272</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>10.21</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6795,9 +6919,11 @@
         <v>-222078.0179302272</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>10.17</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6832,9 +6958,11 @@
         <v>-213903.1592302272</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>10.23</v>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6869,9 +6997,11 @@
         <v>-207244.9451302272</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>10.26</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6906,9 +7036,11 @@
         <v>-183069.9917989936</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6943,9 +7075,11 @@
         <v>-183069.9917989936</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>10.31</v>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6980,9 +7114,11 @@
         <v>-183069.9917989936</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>10.31</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -7017,9 +7153,11 @@
         <v>-183069.9917989936</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>10.31</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -7054,9 +7192,11 @@
         <v>-183069.9917989936</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>10.31</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -7091,9 +7231,11 @@
         <v>-156592.2979989936</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>10.31</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -7128,9 +7270,11 @@
         <v>-156592.2979989936</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>10.33</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -7387,9 +7531,11 @@
         <v>-70482.0884989936</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>10.29</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -7424,9 +7570,11 @@
         <v>-61938.9633989936</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>10.24</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7461,9 +7609,11 @@
         <v>-78405.3812989936</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7498,9 +7648,11 @@
         <v>-69836.1288989936</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>10.23</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7535,9 +7687,11 @@
         <v>-63240.5787989936</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>10.32</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7572,9 +7726,11 @@
         <v>-88103.1241989936</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>10.36</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7609,9 +7765,11 @@
         <v>-43038.94339899359</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>10.35</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7646,9 +7804,11 @@
         <v>-43038.94339899359</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>10.37</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7683,9 +7843,11 @@
         <v>-43038.94339899359</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>10.37</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -8127,9 +8289,11 @@
         <v>-19280.0391989936</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>10.37</v>
+      </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -8534,9 +8698,11 @@
         <v>-5703.924698993596</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>10.22</v>
+      </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -8571,9 +8737,11 @@
         <v>-5703.924698993596</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>10.25</v>
+      </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -8608,9 +8776,11 @@
         <v>36651.7296010064</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>10.25</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8645,9 +8815,11 @@
         <v>44236.7463010064</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>10.26</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8682,9 +8854,11 @@
         <v>37762.3172010064</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8719,9 +8893,11 @@
         <v>46136.0702010064</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>10.21</v>
+      </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -8756,9 +8932,11 @@
         <v>32355.2130010064</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>10.22</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8793,9 +8971,11 @@
         <v>80099.74840100639</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -8830,9 +9010,11 @@
         <v>64155.20700100639</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>10.33</v>
+      </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -8867,9 +9049,11 @@
         <v>57469.57960100639</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -8904,9 +9088,11 @@
         <v>63672.3776010064</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>10.18</v>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8941,9 +9127,11 @@
         <v>56826.48540100639</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -8978,9 +9166,11 @@
         <v>68247.1762010064</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>10.21</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -9015,9 +9205,11 @@
         <v>23512.5622010064</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>10.3</v>
+      </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -9052,9 +9244,11 @@
         <v>56447.8738010064</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>10.22</v>
+      </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -9089,9 +9283,11 @@
         <v>39337.6871010064</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>10.32</v>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -9311,9 +9507,11 @@
         <v>-13347.6839989936</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -12160,9 +12358,11 @@
         <v>341191.3363010064</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>10.26</v>
+      </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -12197,9 +12397,11 @@
         <v>314650.4993010064</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -12234,9 +12436,11 @@
         <v>324941.0228010064</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -12271,9 +12475,11 @@
         <v>179043.7926010065</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -12567,9 +12773,11 @@
         <v>180725.9269010064</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>10.16</v>
+      </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -12604,9 +12812,11 @@
         <v>190465.7753010064</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>10.23</v>
+      </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -12641,9 +12851,11 @@
         <v>141814.7624010064</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>10.25</v>
+      </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -12678,9 +12890,11 @@
         <v>-103136.6621989936</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>10.18</v>
+      </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -12715,9 +12929,11 @@
         <v>-103136.6621989936</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>10.16</v>
+      </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -12752,9 +12968,11 @@
         <v>-234385.8165989936</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>10.16</v>
+      </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -12789,9 +13007,11 @@
         <v>-275885.1647989936</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>10.14</v>
+      </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -12826,9 +13046,11 @@
         <v>-216522.1929989936</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>10.13</v>
+      </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -12863,9 +13085,11 @@
         <v>-267784.6383989935</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -12900,9 +13124,11 @@
         <v>-311797.5320989935</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>10.14</v>
+      </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -12937,9 +13163,11 @@
         <v>-288866.0122989935</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>10.13</v>
+      </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -12974,7 +13202,7 @@
         <v>-362793.0175989936</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>10.14</v>
@@ -13013,7 +13241,7 @@
         <v>-337346.8514989936</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>10.13</v>
@@ -13052,7 +13280,7 @@
         <v>-337346.8514989936</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>10.15</v>
@@ -13091,7 +13319,7 @@
         <v>-337346.8514989936</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>10.15</v>
@@ -13130,7 +13358,7 @@
         <v>-441657.5422989936</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>10.15</v>
@@ -13169,7 +13397,7 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>10.13</v>
@@ -13208,7 +13436,7 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>10.14</v>
@@ -13247,7 +13475,7 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>10.14</v>
@@ -13286,7 +13514,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>10.14</v>
@@ -13325,7 +13553,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>10.15</v>
@@ -13364,7 +13592,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>10.15</v>
@@ -13403,7 +13631,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>10.15</v>
@@ -13442,7 +13670,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>10.15</v>
@@ -13481,7 +13709,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>10.15</v>
@@ -13520,7 +13748,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>10.15</v>
@@ -13559,7 +13787,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>10.15</v>
@@ -13598,7 +13826,7 @@
         <v>763332.5178466795</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>10.15</v>
@@ -13637,11 +13865,9 @@
         <v>712463.9014466796</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>10.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -13898,9 +14124,11 @@
         <v>1003609.22364668</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>10.36</v>
+      </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -13935,9 +14163,11 @@
         <v>1012678.19224668</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>10.36</v>
+      </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -14009,9 +14239,11 @@
         <v>1002120.126357769</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>10.32</v>
+      </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -24110,16 +24342,18 @@
         <v>2510875.954280871</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L635" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L635" t="n">
+        <v>1</v>
+      </c>
       <c r="M635" t="inlineStr"/>
     </row>
     <row r="636">
@@ -24145,11 +24379,15 @@
         <v>2510875.954280871</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24182,7 +24420,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24215,7 +24457,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24248,7 +24494,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24281,7 +24531,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24314,7 +24568,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24347,7 +24605,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24380,7 +24642,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24413,7 +24679,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24446,7 +24716,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24479,7 +24753,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24512,7 +24790,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24545,7 +24827,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24578,7 +24864,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24611,7 +24901,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24644,7 +24938,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24677,7 +24975,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24710,7 +25012,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24743,7 +25049,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24776,7 +25086,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24809,7 +25123,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24842,7 +25160,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24875,7 +25197,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24908,7 +25234,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24941,7 +25271,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24974,7 +25308,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -25007,7 +25345,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -25040,7 +25382,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -25073,7 +25419,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25106,7 +25456,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25139,7 +25493,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25172,7 +25530,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25205,7 +25567,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25238,7 +25604,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25271,7 +25641,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25304,7 +25678,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25337,7 +25715,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25370,7 +25752,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25403,7 +25789,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25436,7 +25826,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25469,7 +25863,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25502,7 +25900,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25535,7 +25937,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25568,7 +25974,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25601,7 +26011,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25634,7 +26048,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25667,7 +26085,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25700,7 +26122,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25733,7 +26159,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25766,7 +26196,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25799,7 +26233,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25832,7 +26270,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25865,7 +26307,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25898,7 +26344,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25931,7 +26381,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25964,7 +26418,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25997,7 +26455,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -26030,7 +26492,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -26063,7 +26529,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -26096,7 +26566,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -26129,7 +26603,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -26162,7 +26640,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -26195,7 +26677,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -26228,7 +26714,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26261,7 +26751,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26294,7 +26788,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26327,7 +26825,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26360,7 +26862,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26393,7 +26899,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -26426,7 +26936,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -26459,7 +26973,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -26492,7 +27010,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -26525,7 +27047,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -26558,7 +27084,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -26591,7 +27121,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -26624,7 +27158,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26657,7 +27195,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26690,7 +27232,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26723,7 +27269,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26756,7 +27306,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26789,7 +27343,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26822,7 +27380,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26855,7 +27417,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26888,7 +27454,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26921,7 +27491,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26954,7 +27528,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26987,7 +27565,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -27020,7 +27602,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -27053,7 +27639,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -27086,7 +27676,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -27119,7 +27713,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -27152,7 +27750,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -27185,7 +27787,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -27218,7 +27824,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -27251,7 +27861,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -27284,7 +27898,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -27317,7 +27935,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +27972,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -27383,7 +28009,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -27416,7 +28046,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -27449,7 +28083,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -27478,11 +28116,15 @@
         <v>2575101.344428114</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -27511,11 +28153,15 @@
         <v>3152557.076428114</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -27544,11 +28190,15 @@
         <v>3044333.153328114</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -27577,11 +28227,15 @@
         <v>3172579.472328114</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -27610,11 +28264,15 @@
         <v>3117577.488328114</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27643,11 +28301,15 @@
         <v>3133987.842528114</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27676,11 +28338,15 @@
         <v>3140654.202128114</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27709,11 +28375,15 @@
         <v>3140700.202128114</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -27742,11 +28412,15 @@
         <v>3138523.763728114</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -27775,11 +28449,15 @@
         <v>2823829.610528114</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -27808,11 +28486,15 @@
         <v>2846043.025028114</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -27841,11 +28523,15 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -27874,11 +28560,15 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -27907,11 +28597,15 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -27940,11 +28634,15 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -27973,11 +28671,15 @@
         <v>2727267.307628114</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -28006,11 +28708,15 @@
         <v>2765687.722128114</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -28039,11 +28745,15 @@
         <v>2757705.073828114</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -28072,11 +28782,15 @@
         <v>2715068.228628114</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -28109,7 +28823,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -28142,7 +28860,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -28175,7 +28897,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -28208,7 +28934,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -28241,7 +28971,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -28274,7 +29008,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -28307,7 +29045,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -28340,7 +29082,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -28373,7 +29119,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -28406,7 +29156,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -28439,7 +29193,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -28472,7 +29230,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -28505,7 +29267,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -28538,7 +29304,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -28571,7 +29341,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -28604,7 +29378,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -28637,7 +29415,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -28670,7 +29452,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -28703,7 +29489,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -28736,7 +29526,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -28769,7 +29563,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -28802,7 +29600,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -28835,7 +29637,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -28868,7 +29674,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -28901,7 +29711,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -28934,7 +29748,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -28967,7 +29785,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -29000,7 +29822,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -29033,7 +29859,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -29066,7 +29896,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -29099,7 +29933,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -29132,7 +29970,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -29165,7 +30007,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -29198,7 +30044,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -29231,7 +30081,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -29264,7 +30118,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -29297,7 +30155,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -29330,7 +30192,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -29363,7 +30229,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -29396,7 +30266,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -29429,7 +30303,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -29462,7 +30340,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -29495,7 +30377,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -29528,7 +30414,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -29561,7 +30451,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -29594,7 +30488,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -29627,7 +30525,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -29660,7 +30562,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -29693,7 +30599,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -29726,7 +30636,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -29759,7 +30673,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -29792,7 +30710,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -29825,7 +30747,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -29854,11 +30780,15 @@
         <v>3440962.825137037</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -29887,11 +30817,15 @@
         <v>3729904.569608466</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -29920,11 +30854,15 @@
         <v>3940031.330908466</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -29953,11 +30891,15 @@
         <v>4387244.731615262</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -29986,11 +30928,15 @@
         <v>4857369.985285691</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -30019,11 +30965,15 @@
         <v>4233380.470292084</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -30052,11 +31002,15 @@
         <v>4123391.072192084</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -30085,11 +31039,15 @@
         <v>4123391.072192084</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -30118,11 +31076,15 @@
         <v>4579084.108580699</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -30151,11 +31113,15 @@
         <v>4539341.298280699</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -30184,11 +31150,15 @@
         <v>4697498.868304783</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -30221,7 +31191,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -30254,7 +31228,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -30283,11 +31261,15 @@
         <v>5211704.353004782</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -30316,11 +31298,15 @@
         <v>5164559.336004782</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -30349,11 +31335,15 @@
         <v>5186962.586804782</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -30382,11 +31372,15 @@
         <v>4927361.568221522</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -30415,11 +31409,15 @@
         <v>4627405.993621523</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -30448,11 +31446,15 @@
         <v>4627405.993621523</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -30485,7 +31487,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -30518,7 +31524,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -30551,7 +31561,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -30584,7 +31598,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -30613,11 +31631,15 @@
         <v>3830018.112221522</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -30646,11 +31668,15 @@
         <v>3855618.610421522</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -30679,11 +31705,15 @@
         <v>3877717.010821522</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -30712,11 +31742,15 @@
         <v>3867423.300821522</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -30745,11 +31779,15 @@
         <v>3813637.137822776</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -30778,11 +31816,15 @@
         <v>3824472.169122776</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -30811,11 +31853,15 @@
         <v>3817763.257622776</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -30848,7 +31894,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -30877,11 +31927,15 @@
         <v>3850028.751322776</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -30910,11 +31964,15 @@
         <v>3829044.571422776</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30943,11 +32001,15 @@
         <v>3829044.571422776</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30976,11 +32038,15 @@
         <v>3617211.579122776</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -31009,11 +32075,15 @@
         <v>3712854.860922776</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -31042,11 +32112,15 @@
         <v>3672161.413922776</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -31075,11 +32149,15 @@
         <v>3689250.820122776</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -31108,11 +32186,15 @@
         <v>3787612.292622776</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -31141,11 +32223,15 @@
         <v>3787612.292622776</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -31174,11 +32260,15 @@
         <v>4225284.019622776</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -31207,11 +32297,15 @@
         <v>4217122.663322776</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -31240,11 +32334,15 @@
         <v>4202904.688722775</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -31273,11 +32371,15 @@
         <v>4228858.439722775</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -31306,11 +32408,15 @@
         <v>4131765.285622776</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -31343,7 +32449,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -31376,7 +32486,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -31409,7 +32523,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -31442,7 +32560,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -31475,7 +32597,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -31508,7 +32634,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -31537,14 +32667,16 @@
         <v>5334290.432631389</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
-      <c r="L860" t="n">
-        <v>1</v>
-      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L860" t="inlineStr"/>
       <c r="M860" t="inlineStr"/>
     </row>
     <row r="861">
@@ -31603,7 +32735,7 @@
         <v>5643931.524446032</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -31636,7 +32768,7 @@
         <v>5990245.918946032</v>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -31669,7 +32801,7 @@
         <v>5965737.856346033</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -31702,7 +32834,7 @@
         <v>5558203.933946033</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31735,7 +32867,7 @@
         <v>5573283.699246033</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31768,7 +32900,7 @@
         <v>5609030.079546033</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -31801,7 +32933,7 @@
         <v>5498365.894446033</v>
       </c>
       <c r="H868" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31834,7 +32966,7 @@
         <v>5462986.052846033</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -31867,7 +32999,7 @@
         <v>5433996.963546033</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -31900,7 +33032,7 @@
         <v>5378664.016446033</v>
       </c>
       <c r="H871" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -31933,7 +33065,7 @@
         <v>5363843.477746032</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -31966,7 +33098,7 @@
         <v>5066072.736546032</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -31999,7 +33131,7 @@
         <v>5082044.471746032</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -32032,7 +33164,7 @@
         <v>5144522.901246032</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -32065,7 +33197,7 @@
         <v>5113498.926746032</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -32098,7 +33230,7 @@
         <v>5072611.153646032</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -32131,7 +33263,7 @@
         <v>5100337.406346032</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -32164,7 +33296,7 @@
         <v>5083485.526733369</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -32197,7 +33329,7 @@
         <v>5088922.696833368</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -32230,7 +33362,7 @@
         <v>5074275.500433369</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -32263,7 +33395,7 @@
         <v>5045394.116033369</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -32296,7 +33428,7 @@
         <v>5035850.578933368</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -32329,7 +33461,7 @@
         <v>4644855.759733369</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -32362,7 +33494,7 @@
         <v>4850334.089833369</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -32395,7 +33527,7 @@
         <v>4862442.096333369</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -32428,7 +33560,7 @@
         <v>4855634.367233369</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -32461,7 +33593,7 @@
         <v>4877407.680333368</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -32494,7 +33626,7 @@
         <v>4934404.985033369</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -32659,7 +33791,7 @@
         <v>5073876.869914418</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32692,7 +33824,7 @@
         <v>5016541.983414418</v>
       </c>
       <c r="H895" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -32725,7 +33857,7 @@
         <v>4785263.089614418</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -32758,7 +33890,7 @@
         <v>4854473.390314418</v>
       </c>
       <c r="H897" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -32890,7 +34022,7 @@
         <v>4690161.769825056</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -33055,7 +34187,7 @@
         <v>4772689.206525056</v>
       </c>
       <c r="H906" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -33088,7 +34220,7 @@
         <v>4758701.144425056</v>
       </c>
       <c r="H907" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -33121,7 +34253,7 @@
         <v>4758701.144425056</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -33154,7 +34286,7 @@
         <v>4709148.149925056</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -33187,7 +34319,7 @@
         <v>4846742.426325056</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -33220,7 +34352,7 @@
         <v>4987511.532925055</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -33253,7 +34385,7 @@
         <v>5003050.262925056</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -33286,7 +34418,7 @@
         <v>5012083.797025056</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -33319,7 +34451,7 @@
         <v>5000212.671725055</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -33352,7 +34484,7 @@
         <v>5015563.220925055</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -33385,7 +34517,7 @@
         <v>5015563.220925055</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -33418,7 +34550,7 @@
         <v>4895948.761425056</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -33451,7 +34583,7 @@
         <v>4926635.360225055</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -33484,7 +34616,7 @@
         <v>4778705.577625056</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -33517,7 +34649,7 @@
         <v>4804505.849825055</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -33550,7 +34682,7 @@
         <v>4653745.077125056</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -33814,7 +34946,7 @@
         <v>4696560.190525057</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33880,7 +35012,7 @@
         <v>4641433.775525057</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33913,7 +35045,7 @@
         <v>4606524.792525057</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33946,7 +35078,7 @@
         <v>4606524.792525057</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33979,7 +35111,7 @@
         <v>4606524.792525057</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -34012,7 +35144,7 @@
         <v>4539481.686825057</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -34045,7 +35177,7 @@
         <v>4242530.964625057</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -34078,7 +35210,7 @@
         <v>4032363.934125057</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -34111,7 +35243,7 @@
         <v>3746692.390125057</v>
       </c>
       <c r="H938" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34144,7 +35276,7 @@
         <v>3839156.069825057</v>
       </c>
       <c r="H939" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -34177,7 +35309,7 @@
         <v>3883928.356125057</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -34210,7 +35342,7 @@
         <v>3903041.522325057</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -34243,7 +35375,7 @@
         <v>3875477.749625057</v>
       </c>
       <c r="H942" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -34276,7 +35408,7 @@
         <v>3875477.749625057</v>
       </c>
       <c r="H943" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34309,7 +35441,7 @@
         <v>3919479.764525056</v>
       </c>
       <c r="H944" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -34342,7 +35474,7 @@
         <v>3900106.222625056</v>
       </c>
       <c r="H945" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -34375,7 +35507,7 @@
         <v>3900106.222625056</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -34408,7 +35540,7 @@
         <v>3882335.564625056</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -34441,7 +35573,7 @@
         <v>3904977.467725057</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -34474,7 +35606,7 @@
         <v>3904977.467725057</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -34507,7 +35639,7 @@
         <v>4086189.563225057</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -34540,7 +35672,7 @@
         <v>4031978.309825057</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -34573,7 +35705,7 @@
         <v>4031978.309825057</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -34606,7 +35738,7 @@
         <v>4031978.309825057</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -34639,7 +35771,7 @@
         <v>4031978.309825057</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -34672,7 +35804,7 @@
         <v>3769924.627125056</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -34705,7 +35837,7 @@
         <v>3777257.671425057</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -34738,7 +35870,7 @@
         <v>3771444.582925057</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -34771,7 +35903,7 @@
         <v>3127718.862125057</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -34804,7 +35936,7 @@
         <v>3146251.562425057</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -34837,7 +35969,7 @@
         <v>3135588.496925057</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -34870,7 +36002,7 @@
         <v>3135588.496925057</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34936,7 +36068,7 @@
         <v>3519092.424425057</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34969,7 +36101,7 @@
         <v>3510531.499425057</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -35365,7 +36497,7 @@
         <v>3258093.721525057</v>
       </c>
       <c r="H976" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -35398,7 +36530,7 @@
         <v>3239622.590025057</v>
       </c>
       <c r="H977" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -35431,7 +36563,7 @@
         <v>3285666.814425057</v>
       </c>
       <c r="H978" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -35464,7 +36596,7 @@
         <v>3323628.950725057</v>
       </c>
       <c r="H979" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -39787,7 +40919,7 @@
         <v>2667510.26130389</v>
       </c>
       <c r="H1110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -39820,7 +40952,7 @@
         <v>2717681.53930389</v>
       </c>
       <c r="H1111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -39853,7 +40985,7 @@
         <v>2802690.652905298</v>
       </c>
       <c r="H1112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -39886,7 +41018,7 @@
         <v>2730062.958305298</v>
       </c>
       <c r="H1113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -39919,7 +41051,7 @@
         <v>2688572.336106359</v>
       </c>
       <c r="H1114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -39952,7 +41084,7 @@
         <v>2649594.559506359</v>
       </c>
       <c r="H1115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -39985,7 +41117,7 @@
         <v>2571735.526385599</v>
       </c>
       <c r="H1116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -40018,7 +41150,7 @@
         <v>2489150.847974979</v>
       </c>
       <c r="H1117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -40051,7 +41183,7 @@
         <v>2507127.615974979</v>
       </c>
       <c r="H1118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -40084,7 +41216,7 @@
         <v>2497807.03497498</v>
       </c>
       <c r="H1119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -44319,6 +45451,6 @@
       <c r="M1247" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest SOC.xlsx
+++ b/BackTest/2020-01-26 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -835,11 +835,9 @@
         <v>-488009.7616</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -874,11 +872,9 @@
         <v>-532679.7466000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -4072,11 +4068,9 @@
         <v>-550435.9525360523</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4111,11 +4105,9 @@
         <v>-530652.2268360524</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>10.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4150,11 +4142,9 @@
         <v>-517637.8408360524</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>10.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4189,11 +4179,9 @@
         <v>-532382.3894360524</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>10.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4228,11 +4216,9 @@
         <v>-532382.3894360524</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4267,11 +4253,9 @@
         <v>-516244.5179360524</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4306,11 +4290,9 @@
         <v>-508973.3945360524</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>10.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4384,11 +4366,9 @@
         <v>-510224.3916360524</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>10.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4423,11 +4403,9 @@
         <v>-502603.2351360524</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>10.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4462,11 +4440,9 @@
         <v>-512387.1253360524</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>10.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4501,11 +4477,9 @@
         <v>-525031.5860360524</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>10.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4540,11 +4514,9 @@
         <v>-504708.8621360525</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>10.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4579,11 +4551,9 @@
         <v>-434021.3760360525</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>10.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4618,11 +4588,9 @@
         <v>-423231.0778360525</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4657,11 +4625,9 @@
         <v>-416284.9452360524</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>10.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4696,11 +4662,9 @@
         <v>-397246.3752360524</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>10.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4735,11 +4699,9 @@
         <v>-484564.4239360524</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>10.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4774,11 +4736,9 @@
         <v>-476540.1539360524</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>10.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4813,11 +4773,9 @@
         <v>-529938.5264360524</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>10.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4852,11 +4810,9 @@
         <v>-504589.8382360524</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>10.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4891,11 +4847,9 @@
         <v>-478726.2029360524</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4930,11 +4884,9 @@
         <v>-494976.6590360524</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>10.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4969,11 +4921,9 @@
         <v>-479573.2076360524</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -5008,11 +4958,9 @@
         <v>-397948.4158360524</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>10.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -5047,11 +4995,9 @@
         <v>-542896.6257360524</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>10.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -5086,11 +5032,9 @@
         <v>-467546.3769360524</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>10.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -5125,11 +5069,9 @@
         <v>-546535.9110360524</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>10.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5164,11 +5106,9 @@
         <v>-343481.6301360524</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>10.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5203,11 +5143,9 @@
         <v>-369778.4683360524</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>10.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5242,11 +5180,9 @@
         <v>-327292.6040360524</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>10.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5281,11 +5217,9 @@
         <v>-320576.5171360524</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>10.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5320,11 +5254,9 @@
         <v>-326424.1599360523</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>10.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5359,11 +5291,9 @@
         <v>-316183.8781360523</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>10.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5398,11 +5328,9 @@
         <v>-342764.5462360524</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>10.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5437,11 +5365,9 @@
         <v>-331297.0256360524</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>10.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5476,11 +5402,9 @@
         <v>-339989.9859360523</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>10.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5515,11 +5439,9 @@
         <v>-307573.4984360524</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5554,11 +5476,9 @@
         <v>-330259.7646360524</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>10.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5593,11 +5513,9 @@
         <v>-340306.1007360524</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>10.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5632,11 +5550,9 @@
         <v>-320597.2393360524</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>10.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5671,11 +5587,9 @@
         <v>-351687.9529360524</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>10.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5710,11 +5624,9 @@
         <v>-327543.1301360524</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>10.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5749,11 +5661,9 @@
         <v>-337863.0173360524</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>10.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5788,11 +5698,9 @@
         <v>-323202.4709360524</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5827,11 +5735,9 @@
         <v>-323202.4709360524</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>10.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5866,11 +5772,9 @@
         <v>-323202.4709360524</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>10.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5905,11 +5809,9 @@
         <v>-332087.9483360524</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>10.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5944,11 +5846,9 @@
         <v>-306907.6489360523</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>10.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5983,11 +5883,9 @@
         <v>-329657.6946360524</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>10.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -6022,11 +5920,9 @@
         <v>-323404.6045360524</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>10.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -6061,11 +5957,9 @@
         <v>-331361.2165360524</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>10.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -6100,11 +5994,9 @@
         <v>-338940.4536360524</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>10.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -6139,11 +6031,9 @@
         <v>-330106.1737360524</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>10.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -6178,11 +6068,9 @@
         <v>-323405.3057360524</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -6217,11 +6105,9 @@
         <v>-316688.0159360524</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>10.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -6256,11 +6142,9 @@
         <v>-309441.0652360524</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>10.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -6295,11 +6179,9 @@
         <v>-302194.7065360524</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>10.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -6334,11 +6216,9 @@
         <v>-311513.4371360524</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>10.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6373,11 +6253,9 @@
         <v>-301568.6418360524</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6412,11 +6290,9 @@
         <v>-309708.8928360524</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>10.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6451,11 +6327,9 @@
         <v>-316621.5093360524</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>10.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6490,11 +6364,9 @@
         <v>-275933.1121302271</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>10.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6529,11 +6401,9 @@
         <v>-268278.7925302272</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>10.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6568,11 +6438,9 @@
         <v>-279173.6178302272</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>10.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6607,11 +6475,9 @@
         <v>-229697.7932302272</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>10.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6646,11 +6512,9 @@
         <v>-223240.3227302272</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>10.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6685,11 +6549,9 @@
         <v>-223240.3227302272</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>10.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6724,11 +6586,9 @@
         <v>-231332.2114302272</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>10.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6763,11 +6623,9 @@
         <v>-238150.4493302272</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>10.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6802,11 +6660,9 @@
         <v>-230294.2282302272</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6841,11 +6697,9 @@
         <v>-223597.3660302272</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6880,11 +6734,9 @@
         <v>-230215.3190302272</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>10.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6919,11 +6771,9 @@
         <v>-222078.0179302272</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>10.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6958,11 +6808,9 @@
         <v>-213903.1592302272</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>10.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6997,11 +6845,9 @@
         <v>-207244.9451302272</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>10.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -7036,11 +6882,9 @@
         <v>-183069.9917989936</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>10.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -7075,11 +6919,9 @@
         <v>-183069.9917989936</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>10.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -7114,11 +6956,9 @@
         <v>-183069.9917989936</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>10.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -7153,11 +6993,9 @@
         <v>-183069.9917989936</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>10.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -7192,11 +7030,9 @@
         <v>-183069.9917989936</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>10.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -7231,11 +7067,9 @@
         <v>-156592.2979989936</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>10.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -7270,11 +7104,9 @@
         <v>-156592.2979989936</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>10.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -7531,11 +7363,9 @@
         <v>-70482.0884989936</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>10.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -7570,11 +7400,9 @@
         <v>-61938.9633989936</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>10.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7609,11 +7437,9 @@
         <v>-78405.3812989936</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>10.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7648,11 +7474,9 @@
         <v>-69836.1288989936</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>10.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7687,11 +7511,9 @@
         <v>-63240.5787989936</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>10.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7726,11 +7548,9 @@
         <v>-88103.1241989936</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>10.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7765,11 +7585,9 @@
         <v>-43038.94339899359</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>10.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7804,11 +7622,9 @@
         <v>-43038.94339899359</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>10.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7843,11 +7659,9 @@
         <v>-43038.94339899359</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>10.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -8289,11 +8103,9 @@
         <v>-19280.0391989936</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>10.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -8698,11 +8510,9 @@
         <v>-5703.924698993596</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>10.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -8737,11 +8547,9 @@
         <v>-5703.924698993596</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>10.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -8776,11 +8584,9 @@
         <v>36651.7296010064</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>10.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8815,11 +8621,9 @@
         <v>44236.7463010064</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>10.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8854,11 +8658,9 @@
         <v>37762.3172010064</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>10.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8893,11 +8695,9 @@
         <v>46136.0702010064</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>10.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -8932,11 +8732,9 @@
         <v>32355.2130010064</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>10.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8971,11 +8769,9 @@
         <v>80099.74840100639</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -9010,11 +8806,9 @@
         <v>64155.20700100639</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>10.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -9049,11 +8843,9 @@
         <v>57469.57960100639</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>10.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -9088,11 +8880,9 @@
         <v>63672.3776010064</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>10.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -9127,11 +8917,9 @@
         <v>56826.48540100639</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>10.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -9166,11 +8954,9 @@
         <v>68247.1762010064</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>10.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -9205,11 +8991,9 @@
         <v>23512.5622010064</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>10.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -9244,11 +9028,9 @@
         <v>56447.8738010064</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>10.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -9283,11 +9065,9 @@
         <v>39337.6871010064</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>10.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -9507,11 +9287,9 @@
         <v>-13347.6839989936</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>10.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -12358,11 +12136,9 @@
         <v>341191.3363010064</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>10.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -12397,11 +12173,9 @@
         <v>314650.4993010064</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -12436,11 +12210,9 @@
         <v>324941.0228010064</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>10.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -12475,11 +12247,9 @@
         <v>179043.7926010065</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>10.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -12773,11 +12543,9 @@
         <v>180725.9269010064</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>10.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -12812,11 +12580,9 @@
         <v>190465.7753010064</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>10.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -12851,11 +12617,9 @@
         <v>141814.7624010064</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>10.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -12890,11 +12654,9 @@
         <v>-103136.6621989936</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>10.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -12929,11 +12691,9 @@
         <v>-103136.6621989936</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>10.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -12968,11 +12728,9 @@
         <v>-234385.8165989936</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>10.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -13007,11 +12765,9 @@
         <v>-275885.1647989936</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>10.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -13046,11 +12802,9 @@
         <v>-216522.1929989936</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>10.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -13085,11 +12839,9 @@
         <v>-267784.6383989935</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -13124,11 +12876,9 @@
         <v>-311797.5320989935</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>10.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -13163,11 +12913,9 @@
         <v>-288866.0122989935</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>10.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -13202,11 +12950,9 @@
         <v>-362793.0175989936</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>10.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -13241,11 +12987,9 @@
         <v>-337346.8514989936</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>10.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
@@ -13280,11 +13024,9 @@
         <v>-337346.8514989936</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -13319,11 +13061,9 @@
         <v>-337346.8514989936</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -13358,11 +13098,9 @@
         <v>-441657.5422989936</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -13397,11 +13135,9 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>10.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
@@ -13436,11 +13172,9 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>10.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -13475,11 +13209,9 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>10.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -13514,11 +13246,9 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>10.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -13553,11 +13283,9 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -13592,11 +13320,9 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -13631,11 +13357,9 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -13670,11 +13394,9 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -13709,11 +13431,9 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -13748,11 +13468,9 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -13787,11 +13505,9 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -13826,11 +13542,9 @@
         <v>763332.5178466795</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>10.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -14124,11 +13838,9 @@
         <v>1003609.22364668</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>10.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -14163,11 +13875,9 @@
         <v>1012678.19224668</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>10.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -14239,11 +13949,9 @@
         <v>1002120.126357769</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>10.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -14722,18 +14430,16 @@
         <v>1771159.212723186</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="inlineStr"/>
     </row>
     <row r="376">
@@ -14759,15 +14465,11 @@
         <v>1803057.684623186</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14796,15 +14498,11 @@
         <v>1579362.630823186</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14833,15 +14531,11 @@
         <v>1593536.320523186</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14870,15 +14564,11 @@
         <v>1578431.353823186</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14907,15 +14597,11 @@
         <v>1595010.943723186</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14944,15 +14630,11 @@
         <v>1575106.142523186</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14981,15 +14663,11 @@
         <v>1575106.142523186</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15018,15 +14696,11 @@
         <v>1565581.091323185</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15055,15 +14729,11 @@
         <v>1634055.312223186</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15092,15 +14762,11 @@
         <v>1634055.312223186</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15129,15 +14795,11 @@
         <v>1605067.227723185</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15166,15 +14828,11 @@
         <v>1611466.590823185</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15203,15 +14861,11 @@
         <v>1585617.805323185</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15240,15 +14894,11 @@
         <v>1564465.050023185</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15277,15 +14927,11 @@
         <v>1572715.117923185</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15314,15 +14960,11 @@
         <v>1580963.497123185</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15351,15 +14993,11 @@
         <v>1279358.225023185</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15388,15 +15026,11 @@
         <v>1317821.020723185</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15429,11 +15063,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15096,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15503,11 +15129,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15540,11 +15162,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15577,11 +15195,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15614,11 +15228,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15651,11 +15261,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15688,11 +15294,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15725,11 +15327,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15762,11 +15360,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15799,11 +15393,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15836,11 +15426,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15873,11 +15459,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15910,11 +15492,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15947,11 +15525,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15984,11 +15558,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16021,11 +15591,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16058,11 +15624,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16095,11 +15657,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16132,11 +15690,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16169,11 +15723,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16206,11 +15756,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16243,11 +15789,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16280,11 +15822,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16317,11 +15855,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16354,11 +15888,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16391,11 +15921,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16428,11 +15954,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16465,11 +15987,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16502,11 +16020,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16539,11 +16053,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16576,11 +16086,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16613,11 +16119,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16650,11 +16152,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16687,11 +16185,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16724,11 +16218,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16761,11 +16251,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16798,11 +16284,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16835,11 +16317,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16872,11 +16350,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16909,11 +16383,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16946,11 +16416,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16983,11 +16449,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17020,11 +16482,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17057,11 +16515,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17094,11 +16548,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17131,11 +16581,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17168,11 +16614,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17205,11 +16647,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17242,11 +16680,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17279,11 +16713,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17316,11 +16746,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17353,11 +16779,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17390,11 +16812,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17427,11 +16845,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17464,11 +16878,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17501,11 +16911,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17538,11 +16944,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17575,11 +16977,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17612,11 +17010,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17649,11 +17043,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17686,11 +17076,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17723,11 +17109,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17760,11 +17142,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17797,11 +17175,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17834,11 +17208,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17871,11 +17241,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +17274,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17945,11 +17307,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17982,11 +17340,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18019,11 +17373,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18056,11 +17406,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18093,11 +17439,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18130,11 +17472,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18167,11 +17505,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18204,11 +17538,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18241,11 +17571,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18278,11 +17604,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18315,11 +17637,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18352,11 +17670,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18385,15 +17699,11 @@
         <v>1772781.702292164</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18422,15 +17732,11 @@
         <v>1948093.274492164</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18463,11 +17769,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18496,15 +17798,11 @@
         <v>2008375.112185832</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18533,15 +17831,11 @@
         <v>2060302.269092164</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18570,15 +17864,11 @@
         <v>2155817.032092164</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18607,15 +17897,11 @@
         <v>2129327.592392164</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18648,11 +17934,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18685,11 +17967,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18722,11 +18000,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18759,11 +18033,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18796,11 +18066,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18833,11 +18099,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18870,11 +18132,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18907,11 +18165,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18944,11 +18198,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18981,11 +18231,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19018,11 +18264,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19055,11 +18297,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19092,11 +18330,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +18363,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19166,11 +18396,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19203,11 +18429,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19240,11 +18462,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19277,11 +18495,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19314,11 +18528,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19351,11 +18561,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19388,11 +18594,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19425,11 +18627,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19462,11 +18660,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19499,11 +18693,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19536,11 +18726,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19573,11 +18759,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19610,11 +18792,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19647,11 +18825,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19684,11 +18858,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19721,11 +18891,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19758,11 +18924,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19795,11 +18957,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19832,11 +18990,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19869,11 +19023,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19906,11 +19056,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19943,11 +19089,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19980,11 +19122,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20017,11 +19155,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20054,11 +19188,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20091,11 +19221,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20128,11 +19254,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20165,11 +19287,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20202,11 +19320,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20239,11 +19353,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20276,11 +19386,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20313,11 +19419,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20350,11 +19452,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20387,11 +19485,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20424,11 +19518,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20461,11 +19551,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20498,11 +19584,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20535,11 +19617,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20572,11 +19650,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20609,11 +19683,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20646,11 +19716,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20683,11 +19749,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20720,11 +19782,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20757,11 +19815,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20794,11 +19848,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20831,11 +19881,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20868,11 +19914,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20905,11 +19947,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20942,11 +19980,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20979,11 +20013,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21016,11 +20046,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21053,11 +20079,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21090,11 +20112,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21127,11 +20145,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21164,11 +20178,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21201,11 +20211,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21238,11 +20244,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21275,11 +20277,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21312,11 +20310,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21349,11 +20343,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21386,11 +20376,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21423,11 +20409,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21460,11 +20442,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21497,11 +20475,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21534,11 +20508,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21571,11 +20541,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21608,11 +20574,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21645,11 +20607,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21682,11 +20640,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21719,11 +20673,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21756,11 +20706,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21793,11 +20739,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21830,11 +20772,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21867,11 +20805,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21904,11 +20838,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21941,11 +20871,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21978,11 +20904,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22015,11 +20937,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22052,11 +20970,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22089,11 +21003,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -22126,11 +21036,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22163,11 +21069,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -22200,11 +21102,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22237,11 +21135,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22274,11 +21168,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22311,11 +21201,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22348,11 +21234,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22385,11 +21267,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22422,11 +21300,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22459,11 +21333,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22496,11 +21366,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22533,11 +21399,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -22570,11 +21432,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -22607,11 +21465,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -22644,11 +21498,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -22681,11 +21531,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -22718,11 +21564,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22755,11 +21597,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22792,11 +21630,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22829,11 +21663,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22866,11 +21696,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22903,11 +21729,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22940,11 +21762,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22977,11 +21795,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -23014,11 +21828,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -23051,11 +21861,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -23088,11 +21894,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -23125,11 +21927,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -23162,11 +21960,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -23199,11 +21993,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -23236,11 +22026,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -23273,11 +22059,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -23310,11 +22092,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -23347,11 +22125,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -23384,11 +22158,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -23421,11 +22191,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -23458,11 +22224,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -23495,11 +22257,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -23532,11 +22290,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -23569,11 +22323,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23606,11 +22356,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23643,11 +22389,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23680,11 +22422,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23717,11 +22455,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23754,11 +22488,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23787,15 +22517,11 @@
         <v>2278653.183392163</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23828,11 +22554,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23861,15 +22583,11 @@
         <v>2330995.044292164</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23902,11 +22620,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23939,11 +22653,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23976,11 +22686,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -24013,11 +22719,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -24050,11 +22752,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -24087,11 +22785,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -24124,11 +22818,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -24161,11 +22851,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -24194,15 +22880,11 @@
         <v>2450442.088980871</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -24235,11 +22917,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -24268,15 +22946,11 @@
         <v>2651419.684580871</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -24305,15 +22979,11 @@
         <v>2504404.654580871</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -24346,11 +23016,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24383,11 +23049,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24420,11 +23082,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24457,11 +23115,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24494,11 +23148,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24531,11 +23181,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24568,11 +23214,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24605,11 +23247,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24642,11 +23280,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24679,11 +23313,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24716,11 +23346,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24753,11 +23379,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24790,11 +23412,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24827,11 +23445,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24864,11 +23478,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24901,11 +23511,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24938,11 +23544,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24975,11 +23577,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -25012,11 +23610,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -25045,15 +23639,11 @@
         <v>2508996.257480871</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -25082,15 +23672,11 @@
         <v>2416041.582180871</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -25119,15 +23705,11 @@
         <v>2372783.244780871</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -25156,15 +23738,11 @@
         <v>2347345.732480871</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -25193,15 +23771,11 @@
         <v>2336978.516380871</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -25230,15 +23804,11 @@
         <v>2348534.623280871</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -25267,15 +23837,11 @@
         <v>2341128.207380871</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -25304,15 +23870,11 @@
         <v>2320883.866380871</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -25341,15 +23903,11 @@
         <v>2336645.780980871</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -25378,15 +23936,11 @@
         <v>2329134.291280871</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -25415,15 +23969,11 @@
         <v>2207519.109680871</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25452,15 +24002,11 @@
         <v>2207519.109680871</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25493,11 +24039,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25526,15 +24068,11 @@
         <v>2270241.519880871</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25563,15 +24101,11 @@
         <v>2278574.671280871</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25600,15 +24134,11 @@
         <v>2270875.977980871</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25641,11 +24171,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25678,11 +24204,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25715,11 +24237,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25752,11 +24270,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25785,15 +24299,11 @@
         <v>2233129.781980871</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25822,15 +24332,11 @@
         <v>2210817.664780871</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25859,15 +24365,11 @@
         <v>2254884.40148087</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25900,11 +24402,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25937,11 +24435,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25974,11 +24468,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -26011,11 +24501,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -26048,11 +24534,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -26085,11 +24567,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -26122,11 +24600,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -26159,11 +24633,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -26196,11 +24666,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -26233,11 +24699,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -26270,11 +24732,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -26307,11 +24765,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -26344,11 +24798,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -26381,11 +24831,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -26418,11 +24864,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -26455,11 +24897,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -26492,11 +24930,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -26529,11 +24963,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -26566,11 +24996,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -26603,11 +25029,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -26640,11 +25062,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -26677,11 +25095,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -26714,11 +25128,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26751,11 +25161,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26788,11 +25194,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26825,11 +25227,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26862,11 +25260,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26899,11 +25293,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -26936,11 +25326,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -26973,11 +25359,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -27010,11 +25392,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -27047,11 +25425,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -27084,11 +25458,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -27121,11 +25491,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -27158,11 +25524,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -27195,11 +25557,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -27232,11 +25590,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -27269,11 +25623,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -27306,11 +25656,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -27343,11 +25689,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -27380,11 +25722,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -27417,11 +25755,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -27454,11 +25788,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -27491,11 +25821,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -27528,11 +25854,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -27565,11 +25887,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -27602,11 +25920,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -27639,11 +25953,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -27676,11 +25986,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -27713,11 +26019,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -27750,11 +26052,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -27787,11 +26085,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -27824,11 +26118,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -27861,11 +26151,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -27898,11 +26184,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -27935,11 +26217,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -27972,11 +26250,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -28009,11 +26283,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -28046,11 +26316,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -28083,11 +26349,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -28120,11 +26382,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -28157,11 +26415,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -28190,15 +26444,11 @@
         <v>3044333.153328114</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -28231,11 +26481,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -28268,11 +26514,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -28301,15 +26543,11 @@
         <v>3133987.842528114</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -28338,15 +26576,11 @@
         <v>3140654.202128114</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -28375,15 +26609,11 @@
         <v>3140700.202128114</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -28412,15 +26642,11 @@
         <v>3138523.763728114</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -28449,15 +26675,11 @@
         <v>2823829.610528114</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -28486,15 +26708,11 @@
         <v>2846043.025028114</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -28523,15 +26741,11 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -28560,15 +26774,11 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -28597,15 +26807,11 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -28634,15 +26840,11 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -28671,15 +26873,11 @@
         <v>2727267.307628114</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -28708,15 +26906,11 @@
         <v>2765687.722128114</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -28745,15 +26939,11 @@
         <v>2757705.073828114</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -28782,15 +26972,11 @@
         <v>2715068.228628114</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -28819,15 +27005,11 @@
         <v>2713679.228628114</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -28860,11 +27042,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -28897,11 +27075,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -28930,15 +27104,11 @@
         <v>2746898.921928115</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -28967,15 +27137,11 @@
         <v>2763930.294328115</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -29004,15 +27170,11 @@
         <v>2763930.294328115</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -29041,15 +27203,11 @@
         <v>2742792.858228115</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -29078,15 +27236,11 @@
         <v>2748545.503328115</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -29115,15 +27269,11 @@
         <v>2748545.503328115</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -29152,15 +27302,11 @@
         <v>2738371.539628115</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -29189,15 +27335,11 @@
         <v>2746241.893228115</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -29226,15 +27368,11 @@
         <v>2601161.897828115</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -29263,15 +27401,11 @@
         <v>2735520.720528115</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -29300,15 +27434,11 @@
         <v>2656330.045728114</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -29337,15 +27467,11 @@
         <v>2638746.535128114</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -29374,15 +27500,11 @@
         <v>2656916.020328114</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -29411,15 +27533,11 @@
         <v>2650162.900628114</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -29448,15 +27566,11 @@
         <v>2581664.006128114</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -29485,15 +27599,11 @@
         <v>2581664.006128114</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -29526,11 +27636,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -29563,11 +27669,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -29600,11 +27702,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -29637,11 +27735,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -29674,11 +27768,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -29711,11 +27801,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -29748,11 +27834,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -29785,11 +27867,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -29822,11 +27900,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -29859,11 +27933,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -29896,11 +27966,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -29933,11 +27999,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -29970,11 +28032,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -30007,11 +28065,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -30044,11 +28098,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -30081,11 +28131,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -30118,11 +28164,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -30155,11 +28197,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -30192,11 +28230,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -30229,11 +28263,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -30266,11 +28296,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -30303,11 +28329,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -30340,11 +28362,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -30377,11 +28395,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -30414,11 +28428,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -30451,11 +28461,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -30488,11 +28494,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -30525,11 +28527,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -30562,11 +28560,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -30599,11 +28593,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -30636,11 +28626,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -30673,11 +28659,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -30710,11 +28692,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -30747,11 +28725,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -30784,11 +28758,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -30821,11 +28791,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -30858,11 +28824,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -30895,11 +28857,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -30932,11 +28890,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -30969,11 +28923,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -31006,11 +28956,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -31043,11 +28989,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -31080,11 +29022,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -31117,11 +29055,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -31154,11 +29088,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -31191,11 +29121,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -31228,11 +29154,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -31265,11 +29187,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -31302,11 +29220,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -31339,11 +29253,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -31376,11 +29286,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -31413,11 +29319,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -31450,11 +29352,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -31487,11 +29385,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -31524,11 +29418,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -31561,11 +29451,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -31598,11 +29484,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -31635,11 +29517,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -31672,11 +29550,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -31709,11 +29583,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -31746,11 +29616,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -31783,11 +29649,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -31816,15 +29678,11 @@
         <v>3824472.169122776</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -31853,15 +29711,11 @@
         <v>3817763.257622776</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -31890,15 +29744,11 @@
         <v>3875849.313322776</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -31927,15 +29777,11 @@
         <v>3850028.751322776</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -31964,15 +29810,11 @@
         <v>3829044.571422776</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -32001,15 +29843,11 @@
         <v>3829044.571422776</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -32038,15 +29876,11 @@
         <v>3617211.579122776</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -32079,11 +29913,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -32116,11 +29946,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -32153,11 +29979,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -32190,11 +30012,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -32227,11 +30045,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -32264,11 +30078,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -32301,11 +30111,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -32338,11 +30144,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -32375,11 +30177,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -32412,11 +30210,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -32449,11 +30243,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -32486,11 +30276,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -32523,11 +30309,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -32560,11 +30342,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -32597,11 +30375,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -32634,11 +30408,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -32667,16 +30437,14 @@
         <v>5334290.432631389</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
+      <c r="L860" t="n">
+        <v>1</v>
+      </c>
       <c r="M860" t="inlineStr"/>
     </row>
     <row r="861">
@@ -32735,7 +30503,7 @@
         <v>5643931.524446032</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -32768,7 +30536,7 @@
         <v>5990245.918946032</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -32801,7 +30569,7 @@
         <v>5965737.856346033</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -32834,7 +30602,7 @@
         <v>5558203.933946033</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -32867,7 +30635,7 @@
         <v>5573283.699246033</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -32900,7 +30668,7 @@
         <v>5609030.079546033</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -32933,7 +30701,7 @@
         <v>5498365.894446033</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -32966,7 +30734,7 @@
         <v>5462986.052846033</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -32999,7 +30767,7 @@
         <v>5433996.963546033</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -33032,7 +30800,7 @@
         <v>5378664.016446033</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -33065,7 +30833,7 @@
         <v>5363843.477746032</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -33098,7 +30866,7 @@
         <v>5066072.736546032</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -33131,7 +30899,7 @@
         <v>5082044.471746032</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -33164,7 +30932,7 @@
         <v>5144522.901246032</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -33197,7 +30965,7 @@
         <v>5113498.926746032</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -33230,7 +30998,7 @@
         <v>5072611.153646032</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -33263,7 +31031,7 @@
         <v>5100337.406346032</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -33296,7 +31064,7 @@
         <v>5083485.526733369</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -33329,7 +31097,7 @@
         <v>5088922.696833368</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -33362,7 +31130,7 @@
         <v>5074275.500433369</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -33395,7 +31163,7 @@
         <v>5045394.116033369</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -33428,7 +31196,7 @@
         <v>5035850.578933368</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -33461,7 +31229,7 @@
         <v>4644855.759733369</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -33494,7 +31262,7 @@
         <v>4850334.089833369</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -33527,7 +31295,7 @@
         <v>4862442.096333369</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -33560,7 +31328,7 @@
         <v>4855634.367233369</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -33593,7 +31361,7 @@
         <v>4877407.680333368</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -34220,7 +31988,7 @@
         <v>4758701.144425056</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -34253,7 +32021,7 @@
         <v>4758701.144425056</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -34286,7 +32054,7 @@
         <v>4709148.149925056</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -34319,7 +32087,7 @@
         <v>4846742.426325056</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -34352,7 +32120,7 @@
         <v>4987511.532925055</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -34385,7 +32153,7 @@
         <v>5003050.262925056</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -34418,7 +32186,7 @@
         <v>5012083.797025056</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -34451,7 +32219,7 @@
         <v>5000212.671725055</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -34484,7 +32252,7 @@
         <v>5015563.220925055</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -34517,7 +32285,7 @@
         <v>5015563.220925055</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -34550,7 +32318,7 @@
         <v>4895948.761425056</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -34583,7 +32351,7 @@
         <v>4926635.360225055</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -34616,7 +32384,7 @@
         <v>4778705.577625056</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -34649,7 +32417,7 @@
         <v>4804505.849825055</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -34682,7 +32450,7 @@
         <v>4653745.077125056</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -35012,7 +32780,7 @@
         <v>4641433.775525057</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -35045,7 +32813,7 @@
         <v>4606524.792525057</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -35078,7 +32846,7 @@
         <v>4606524.792525057</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -35111,7 +32879,7 @@
         <v>4606524.792525057</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -35144,7 +32912,7 @@
         <v>4539481.686825057</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -35177,7 +32945,7 @@
         <v>4242530.964625057</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -35210,7 +32978,7 @@
         <v>4032363.934125057</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -35243,7 +33011,7 @@
         <v>3746692.390125057</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -35276,7 +33044,7 @@
         <v>3839156.069825057</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -35309,7 +33077,7 @@
         <v>3883928.356125057</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -35342,7 +33110,7 @@
         <v>3903041.522325057</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -35375,7 +33143,7 @@
         <v>3875477.749625057</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -35408,7 +33176,7 @@
         <v>3875477.749625057</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -35441,7 +33209,7 @@
         <v>3919479.764525056</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -35474,7 +33242,7 @@
         <v>3900106.222625056</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -35507,7 +33275,7 @@
         <v>3900106.222625056</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -35540,7 +33308,7 @@
         <v>3882335.564625056</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -35573,7 +33341,7 @@
         <v>3904977.467725057</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -35606,7 +33374,7 @@
         <v>3904977.467725057</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -35639,7 +33407,7 @@
         <v>4086189.563225057</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -35672,7 +33440,7 @@
         <v>4031978.309825057</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -35705,7 +33473,7 @@
         <v>4031978.309825057</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -35738,7 +33506,7 @@
         <v>4031978.309825057</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -35771,7 +33539,7 @@
         <v>4031978.309825057</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -35804,7 +33572,7 @@
         <v>3769924.627125056</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -35837,7 +33605,7 @@
         <v>3777257.671425057</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -35870,7 +33638,7 @@
         <v>3771444.582925057</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -35903,7 +33671,7 @@
         <v>3127718.862125057</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -35936,7 +33704,7 @@
         <v>3146251.562425057</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -35969,7 +33737,7 @@
         <v>3135588.496925057</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -36002,7 +33770,7 @@
         <v>3135588.496925057</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -36068,7 +33836,7 @@
         <v>3519092.424425057</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -36101,7 +33869,7 @@
         <v>3510531.499425057</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -38213,7 +35981,7 @@
         <v>2302535.858325058</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -38246,7 +36014,7 @@
         <v>2348120.712025058</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -38279,7 +36047,7 @@
         <v>2332673.898625058</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -38312,7 +36080,7 @@
         <v>1915242.250525058</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -45451,6 +43219,6 @@
       <c r="M1247" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest SOC.xlsx
+++ b/BackTest/2020-01-26 BackTest SOC.xlsx
@@ -835,9 +835,11 @@
         <v>-488009.7616</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -872,9 +874,11 @@
         <v>-532679.7466000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -4068,9 +4072,11 @@
         <v>-550435.9525360523</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4105,9 +4111,11 @@
         <v>-530652.2268360524</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>10.18</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4142,9 +4150,11 @@
         <v>-517637.8408360524</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>10.24</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4179,9 +4189,11 @@
         <v>-532382.3894360524</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10.26</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4216,9 +4228,11 @@
         <v>-532382.3894360524</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4253,9 +4267,11 @@
         <v>-516244.5179360524</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4290,9 +4306,11 @@
         <v>-508973.3945360524</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10.17</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4366,9 +4384,11 @@
         <v>-510224.3916360524</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>10.17</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4403,9 +4423,11 @@
         <v>-502603.2351360524</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>10.22</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4440,9 +4462,11 @@
         <v>-512387.1253360524</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>10.25</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4477,9 +4501,11 @@
         <v>-525031.5860360524</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>10.21</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4514,9 +4540,11 @@
         <v>-504708.8621360525</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>10.17</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4551,9 +4579,11 @@
         <v>-434021.3760360525</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10.19</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4625,9 +4655,11 @@
         <v>-416284.9452360524</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10.25</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4773,9 +4805,11 @@
         <v>-529938.5264360524</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4810,9 +4844,11 @@
         <v>-504589.8382360524</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>10.14</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4847,9 +4883,11 @@
         <v>-478726.2029360524</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4921,9 +4959,11 @@
         <v>-479573.2076360524</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -5069,9 +5109,11 @@
         <v>-546535.9110360524</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>10.21</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5365,9 +5407,11 @@
         <v>-331297.0256360524</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>10.14</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5439,9 +5483,11 @@
         <v>-307573.4984360524</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5661,9 +5707,11 @@
         <v>-337863.0173360524</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>10.23</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5698,9 +5746,11 @@
         <v>-323202.4709360524</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5735,9 +5785,11 @@
         <v>-323202.4709360524</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5772,9 +5824,11 @@
         <v>-323202.4709360524</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5809,9 +5863,11 @@
         <v>-332087.9483360524</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>10.27</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5846,9 +5902,11 @@
         <v>-306907.6489360523</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>10.24</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5883,9 +5941,11 @@
         <v>-329657.6946360524</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>10.3</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5920,9 +5980,11 @@
         <v>-323404.6045360524</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>10.23</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -6031,9 +6093,11 @@
         <v>-330106.1737360524</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>10.14</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -6068,9 +6132,11 @@
         <v>-323405.3057360524</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -6105,9 +6171,11 @@
         <v>-316688.0159360524</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>10.18</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -6142,9 +6210,11 @@
         <v>-309441.0652360524</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>10.22</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -6179,9 +6249,11 @@
         <v>-302194.7065360524</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>10.23</v>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -6216,9 +6288,11 @@
         <v>-311513.4371360524</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6253,9 +6327,11 @@
         <v>-301568.6418360524</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6290,9 +6366,11 @@
         <v>-309708.8928360524</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6327,9 +6405,11 @@
         <v>-316621.5093360524</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>10.18</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6364,9 +6444,11 @@
         <v>-275933.1121302271</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>10.14</v>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6401,9 +6483,11 @@
         <v>-268278.7925302272</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>10.17</v>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6438,9 +6522,11 @@
         <v>-279173.6178302272</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>10.21</v>
+      </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6475,9 +6561,11 @@
         <v>-229697.7932302272</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>10.13</v>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6512,9 +6600,11 @@
         <v>-223240.3227302272</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>10.17</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6549,9 +6639,11 @@
         <v>-223240.3227302272</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>10.24</v>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6586,9 +6678,11 @@
         <v>-231332.2114302272</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>10.24</v>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6623,9 +6717,11 @@
         <v>-238150.4493302272</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>10.21</v>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6660,9 +6756,11 @@
         <v>-230294.2282302272</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6697,9 +6795,11 @@
         <v>-223597.3660302272</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>10.2</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6734,9 +6834,11 @@
         <v>-230215.3190302272</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>10.21</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6771,9 +6873,11 @@
         <v>-222078.0179302272</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>10.17</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6808,9 +6912,11 @@
         <v>-213903.1592302272</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>10.23</v>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6845,9 +6951,11 @@
         <v>-207244.9451302272</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>10.26</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6882,9 +6990,11 @@
         <v>-183069.9917989936</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>10.28</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6919,9 +7029,11 @@
         <v>-183069.9917989936</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>10.31</v>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -13061,9 +13173,11 @@
         <v>-337346.8514989936</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -13098,9 +13212,11 @@
         <v>-441657.5422989936</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -13135,9 +13251,11 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>10.13</v>
+      </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
@@ -13172,9 +13290,11 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>10.14</v>
+      </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -13209,9 +13329,11 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>10.14</v>
+      </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -13246,9 +13368,11 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>10.14</v>
+      </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -13283,9 +13407,11 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -13320,9 +13446,11 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -13357,9 +13485,11 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -13394,9 +13524,11 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -13431,9 +13563,11 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -13468,9 +13602,11 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -13505,9 +13641,11 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -13542,9 +13680,11 @@
         <v>763332.5178466795</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>10.15</v>
+      </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -14430,16 +14570,18 @@
         <v>1771159.212723186</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L375" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
       <c r="M375" t="inlineStr"/>
     </row>
     <row r="376">
@@ -14465,11 +14607,15 @@
         <v>1803057.684623186</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14498,11 +14644,15 @@
         <v>1579362.630823186</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14531,11 +14681,15 @@
         <v>1593536.320523186</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14564,11 +14718,15 @@
         <v>1578431.353823186</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14597,11 +14755,15 @@
         <v>1595010.943723186</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14630,11 +14792,15 @@
         <v>1575106.142523186</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14663,11 +14829,15 @@
         <v>1575106.142523186</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14696,11 +14866,15 @@
         <v>1565581.091323185</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14729,11 +14903,15 @@
         <v>1634055.312223186</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14762,11 +14940,15 @@
         <v>1634055.312223186</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14795,11 +14977,15 @@
         <v>1605067.227723185</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14828,11 +15014,15 @@
         <v>1611466.590823185</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14861,11 +15051,15 @@
         <v>1585617.805323185</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14894,11 +15088,15 @@
         <v>1564465.050023185</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14927,11 +15125,15 @@
         <v>1572715.117923185</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14960,11 +15162,15 @@
         <v>1580963.497123185</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14993,11 +15199,15 @@
         <v>1279358.225023185</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15026,11 +15236,15 @@
         <v>1317821.020723185</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15063,7 +15277,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15096,7 +15314,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15129,7 +15351,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15162,7 +15388,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15195,7 +15425,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15228,7 +15462,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15261,7 +15499,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15294,7 +15536,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15327,7 +15573,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15360,7 +15610,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15393,7 +15647,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15426,7 +15684,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15459,7 +15721,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15492,7 +15758,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15525,7 +15795,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15558,7 +15832,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15591,7 +15869,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15624,7 +15906,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15657,7 +15943,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15690,7 +15980,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15723,7 +16017,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15756,7 +16054,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15789,7 +16091,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15822,7 +16128,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15855,7 +16165,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15888,7 +16202,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15921,7 +16239,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15954,7 +16276,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15987,7 +16313,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16020,7 +16350,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16053,7 +16387,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16086,7 +16424,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16119,7 +16461,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16152,7 +16498,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16185,7 +16535,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16218,7 +16572,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16251,7 +16609,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16284,7 +16646,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16317,7 +16683,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16350,7 +16720,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16383,7 +16757,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16416,7 +16794,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16449,7 +16831,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16482,7 +16868,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16515,7 +16905,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16548,7 +16942,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16581,7 +16979,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16614,7 +17016,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16647,7 +17053,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16680,7 +17090,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16713,7 +17127,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16746,7 +17164,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16779,7 +17201,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16812,7 +17238,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16845,7 +17275,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16878,7 +17312,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16911,7 +17349,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16944,7 +17386,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16977,7 +17423,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17010,7 +17460,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17043,7 +17497,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17076,7 +17534,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17109,7 +17571,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17142,7 +17608,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17175,7 +17645,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17208,7 +17682,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17241,7 +17719,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17274,7 +17756,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17307,7 +17793,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17340,7 +17830,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17373,7 +17867,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17406,7 +17904,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17439,7 +17941,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17472,7 +17978,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17505,7 +18015,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17538,7 +18052,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17571,7 +18089,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17604,7 +18126,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17637,7 +18163,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17670,7 +18200,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17699,11 +18233,15 @@
         <v>1772781.702292164</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17732,11 +18270,15 @@
         <v>1948093.274492164</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17769,7 +18311,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17798,11 +18344,15 @@
         <v>2008375.112185832</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17831,11 +18381,15 @@
         <v>2060302.269092164</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17864,11 +18418,15 @@
         <v>2155817.032092164</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17897,11 +18455,15 @@
         <v>2129327.592392164</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17934,7 +18496,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17967,7 +18533,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18000,7 +18570,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18033,7 +18607,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18066,7 +18644,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18099,7 +18681,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18132,7 +18718,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18165,7 +18755,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18198,7 +18792,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18231,7 +18829,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18264,7 +18866,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18297,7 +18903,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18330,7 +18940,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18363,7 +18977,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18396,7 +19014,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18429,7 +19051,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18462,7 +19088,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18495,7 +19125,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18528,7 +19162,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18561,7 +19199,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18594,7 +19236,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18627,7 +19273,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18660,7 +19310,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18693,7 +19347,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18726,7 +19384,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18759,7 +19421,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18792,7 +19458,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18825,7 +19495,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18858,7 +19532,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18891,7 +19569,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18924,7 +19606,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18957,7 +19643,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18990,7 +19680,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19023,7 +19717,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19056,7 +19754,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19089,7 +19791,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19122,7 +19828,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19155,7 +19865,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19188,7 +19902,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19221,7 +19939,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19254,7 +19976,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19287,7 +20013,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19320,7 +20050,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19353,7 +20087,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19386,7 +20124,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19419,7 +20161,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19452,7 +20198,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19485,7 +20235,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19518,7 +20272,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19551,7 +20309,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19584,7 +20346,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19617,7 +20383,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19650,7 +20420,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19683,7 +20457,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19716,7 +20494,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19749,7 +20531,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19782,7 +20568,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19815,7 +20605,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19848,7 +20642,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19881,7 +20679,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19914,7 +20716,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19947,7 +20753,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19980,7 +20790,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20013,7 +20827,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20046,7 +20864,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20079,7 +20901,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20112,7 +20938,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20145,7 +20975,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20178,7 +21012,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20211,7 +21049,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20244,7 +21086,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20277,7 +21123,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20310,7 +21160,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20343,7 +21197,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20376,7 +21234,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20409,7 +21271,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20442,7 +21308,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20475,7 +21345,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20508,7 +21382,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20541,7 +21419,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20574,7 +21456,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20607,7 +21493,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20640,7 +21530,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20673,7 +21567,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20706,7 +21604,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20739,7 +21641,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20772,7 +21678,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20805,7 +21715,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20838,7 +21752,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20871,7 +21789,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20904,7 +21826,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20937,7 +21863,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20970,7 +21900,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21003,7 +21937,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21036,7 +21974,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21069,7 +22011,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21102,7 +22048,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21135,7 +22085,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21168,7 +22122,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21201,7 +22159,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21234,7 +22196,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21267,7 +22233,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21300,7 +22270,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21333,7 +22307,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21366,7 +22344,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21399,7 +22381,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21432,7 +22418,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21465,7 +22455,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21498,7 +22492,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21531,7 +22529,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21564,7 +22566,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21597,7 +22603,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21630,7 +22640,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21663,7 +22677,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21696,7 +22714,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21729,7 +22751,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21762,7 +22788,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21795,7 +22825,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21828,7 +22862,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21861,7 +22899,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21894,7 +22936,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21927,7 +22973,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21960,7 +23010,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21993,7 +23047,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22026,7 +23084,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22059,7 +23121,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22092,7 +23158,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22125,7 +23195,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22158,7 +23232,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22191,7 +23269,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22224,7 +23306,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22257,7 +23343,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22290,7 +23380,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22323,7 +23417,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22356,7 +23454,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22389,7 +23491,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22422,7 +23528,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22455,7 +23565,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22488,7 +23602,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22517,11 +23635,15 @@
         <v>2278653.183392163</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22554,7 +23676,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22583,11 +23709,15 @@
         <v>2330995.044292164</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22620,7 +23750,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22653,7 +23787,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22686,7 +23824,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22719,7 +23861,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22752,7 +23898,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22785,7 +23935,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22818,7 +23972,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22851,7 +24009,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22880,11 +24042,15 @@
         <v>2450442.088980871</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22917,7 +24083,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22946,11 +24116,15 @@
         <v>2651419.684580871</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22979,11 +24153,15 @@
         <v>2504404.654580871</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23016,7 +24194,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23049,7 +24231,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23082,7 +24268,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23115,7 +24305,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23148,7 +24342,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23181,7 +24379,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23214,7 +24416,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23247,7 +24453,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23280,7 +24490,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23313,7 +24527,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23346,7 +24564,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23379,7 +24601,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23412,7 +24638,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23445,7 +24675,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23478,7 +24712,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23511,7 +24749,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23544,7 +24786,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23577,7 +24823,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23610,7 +24860,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23639,11 +24893,15 @@
         <v>2508996.257480871</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23672,11 +24930,15 @@
         <v>2416041.582180871</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23705,11 +24967,15 @@
         <v>2372783.244780871</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23738,11 +25004,15 @@
         <v>2347345.732480871</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23771,11 +25041,15 @@
         <v>2336978.516380871</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23804,11 +25078,15 @@
         <v>2348534.623280871</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23837,11 +25115,15 @@
         <v>2341128.207380871</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23870,11 +25152,15 @@
         <v>2320883.866380871</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23903,11 +25189,15 @@
         <v>2336645.780980871</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23936,11 +25226,15 @@
         <v>2329134.291280871</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23969,11 +25263,15 @@
         <v>2207519.109680871</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24002,11 +25300,15 @@
         <v>2207519.109680871</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24039,7 +25341,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24068,11 +25374,15 @@
         <v>2270241.519880871</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24101,11 +25411,15 @@
         <v>2278574.671280871</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24134,11 +25448,15 @@
         <v>2270875.977980871</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24171,7 +25489,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24204,7 +25526,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24237,7 +25563,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24270,7 +25600,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24299,11 +25633,15 @@
         <v>2233129.781980871</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24332,11 +25670,15 @@
         <v>2210817.664780871</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24365,11 +25707,15 @@
         <v>2254884.40148087</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24402,7 +25748,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24435,7 +25785,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24468,7 +25822,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24501,7 +25859,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24534,7 +25896,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24567,7 +25933,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24600,7 +25970,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24633,7 +26007,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24666,7 +26044,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24699,7 +26081,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24732,7 +26118,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24765,7 +26155,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24798,7 +26192,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24831,7 +26229,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24864,7 +26266,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24897,7 +26303,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24930,7 +26340,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24963,7 +26377,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24996,7 +26414,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25029,7 +26451,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25062,7 +26488,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25095,7 +26525,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25128,7 +26562,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25161,7 +26599,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25194,7 +26636,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25227,7 +26673,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25260,7 +26710,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25293,7 +26747,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25326,7 +26784,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25359,7 +26821,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25392,7 +26858,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25425,7 +26895,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25458,7 +26932,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25491,7 +26969,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25524,7 +27006,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25557,7 +27043,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25590,7 +27080,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25623,7 +27117,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25656,7 +27154,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25689,7 +27191,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25722,7 +27228,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25755,7 +27265,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25788,7 +27302,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25821,7 +27339,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25854,7 +27376,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25887,7 +27413,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25920,7 +27450,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25953,7 +27487,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25986,7 +27524,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26019,7 +27561,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26052,7 +27598,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26085,7 +27635,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26118,7 +27672,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26151,7 +27709,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26184,7 +27746,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26217,7 +27783,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26250,7 +27820,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26283,7 +27857,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26316,7 +27894,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26349,7 +27931,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26382,7 +27968,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26415,7 +28005,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26444,11 +28038,15 @@
         <v>3044333.153328114</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26481,7 +28079,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26514,7 +28116,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26543,11 +28149,15 @@
         <v>3133987.842528114</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26576,11 +28186,15 @@
         <v>3140654.202128114</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26609,11 +28223,15 @@
         <v>3140700.202128114</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26642,11 +28260,15 @@
         <v>3138523.763728114</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26675,11 +28297,15 @@
         <v>2823829.610528114</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26708,11 +28334,15 @@
         <v>2846043.025028114</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26741,11 +28371,15 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26774,11 +28408,15 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26807,11 +28445,15 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26840,11 +28482,15 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26873,11 +28519,15 @@
         <v>2727267.307628114</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26906,11 +28556,15 @@
         <v>2765687.722128114</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26939,11 +28593,15 @@
         <v>2757705.073828114</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26972,11 +28630,15 @@
         <v>2715068.228628114</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27005,11 +28667,15 @@
         <v>2713679.228628114</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27042,7 +28708,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27075,7 +28745,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27104,11 +28778,15 @@
         <v>2746898.921928115</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27137,11 +28815,15 @@
         <v>2763930.294328115</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27170,11 +28852,15 @@
         <v>2763930.294328115</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27203,11 +28889,15 @@
         <v>2742792.858228115</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27236,11 +28926,15 @@
         <v>2748545.503328115</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27269,11 +28963,15 @@
         <v>2748545.503328115</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27302,11 +29000,15 @@
         <v>2738371.539628115</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27335,11 +29037,15 @@
         <v>2746241.893228115</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27368,11 +29074,15 @@
         <v>2601161.897828115</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27401,11 +29111,15 @@
         <v>2735520.720528115</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27434,11 +29148,15 @@
         <v>2656330.045728114</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27467,11 +29185,15 @@
         <v>2638746.535128114</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27500,11 +29222,15 @@
         <v>2656916.020328114</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27533,11 +29259,15 @@
         <v>2650162.900628114</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27566,11 +29296,15 @@
         <v>2581664.006128114</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27599,11 +29333,15 @@
         <v>2581664.006128114</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27636,7 +29374,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27669,7 +29411,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27702,7 +29448,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27735,7 +29485,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27768,7 +29522,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27801,7 +29559,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27834,7 +29596,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27867,7 +29633,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27900,7 +29670,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27933,7 +29707,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27966,7 +29744,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27999,7 +29781,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28032,7 +29818,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28065,7 +29855,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28098,7 +29892,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28131,7 +29929,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28164,7 +29966,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28197,7 +30003,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28230,7 +30040,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28263,7 +30077,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28296,7 +30114,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28329,7 +30151,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28362,7 +30188,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28395,7 +30225,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28428,7 +30262,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28461,7 +30299,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28494,7 +30336,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28527,7 +30373,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28560,7 +30410,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28593,7 +30447,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28626,7 +30484,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28659,7 +30521,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28692,7 +30558,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28725,7 +30595,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28758,7 +30632,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28791,7 +30669,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28824,7 +30706,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28857,7 +30743,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28890,7 +30780,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28923,7 +30817,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28956,7 +30854,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28989,7 +30891,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -29022,7 +30928,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29055,7 +30965,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29088,7 +31002,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29121,7 +31039,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29154,7 +31076,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29183,14 +31109,16 @@
         <v>5211704.353004782</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
-      <c r="L822" t="n">
-        <v>1</v>
-      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L822" t="inlineStr"/>
       <c r="M822" t="inlineStr"/>
     </row>
     <row r="823">
@@ -29216,7 +31144,7 @@
         <v>5164559.336004782</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29249,7 +31177,7 @@
         <v>5186962.586804782</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29678,7 +31606,7 @@
         <v>3824472.169122776</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29711,7 +31639,7 @@
         <v>3817763.257622776</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29744,7 +31672,7 @@
         <v>3875849.313322776</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29777,7 +31705,7 @@
         <v>3850028.751322776</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29810,7 +31738,7 @@
         <v>3829044.571422776</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29843,7 +31771,7 @@
         <v>3829044.571422776</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29876,7 +31804,7 @@
         <v>3617211.579122776</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30338,7 +32266,7 @@
         <v>4604394.259822776</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30371,7 +32299,7 @@
         <v>4568427.252022776</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30437,7 +32365,7 @@
         <v>5334290.432631389</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30470,7 +32398,7 @@
         <v>5695623.502922776</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30503,7 +32431,7 @@
         <v>5643931.524446032</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30536,7 +32464,7 @@
         <v>5990245.918946032</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30569,7 +32497,7 @@
         <v>5965737.856346033</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30602,7 +32530,7 @@
         <v>5558203.933946033</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30635,7 +32563,7 @@
         <v>5573283.699246033</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30668,7 +32596,7 @@
         <v>5609030.079546033</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30701,7 +32629,7 @@
         <v>5498365.894446033</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30734,7 +32662,7 @@
         <v>5462986.052846033</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30767,7 +32695,7 @@
         <v>5433996.963546033</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30800,7 +32728,7 @@
         <v>5378664.016446033</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30833,7 +32761,7 @@
         <v>5363843.477746032</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30866,7 +32794,7 @@
         <v>5066072.736546032</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30899,7 +32827,7 @@
         <v>5082044.471746032</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30932,7 +32860,7 @@
         <v>5144522.901246032</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30965,7 +32893,7 @@
         <v>5113498.926746032</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30998,7 +32926,7 @@
         <v>5072611.153646032</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31031,7 +32959,7 @@
         <v>5100337.406346032</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31064,7 +32992,7 @@
         <v>5083485.526733369</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31097,7 +33025,7 @@
         <v>5088922.696833368</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31130,7 +33058,7 @@
         <v>5074275.500433369</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31163,7 +33091,7 @@
         <v>5045394.116033369</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31196,7 +33124,7 @@
         <v>5035850.578933368</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31229,7 +33157,7 @@
         <v>4644855.759733369</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31262,7 +33190,7 @@
         <v>4850334.089833369</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31295,7 +33223,7 @@
         <v>4862442.096333369</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31328,7 +33256,7 @@
         <v>4855634.367233369</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31361,7 +33289,7 @@
         <v>4877407.680333368</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31394,7 +33322,7 @@
         <v>4934404.985033369</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31427,7 +33355,7 @@
         <v>5157454.393664418</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31460,7 +33388,7 @@
         <v>5157454.393664418</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31493,7 +33421,7 @@
         <v>5120698.496908862</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31526,7 +33454,7 @@
         <v>5120698.496908862</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31559,7 +33487,7 @@
         <v>5073876.869914418</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31592,7 +33520,7 @@
         <v>5016541.983414418</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31625,7 +33553,7 @@
         <v>4785263.089614418</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -31658,7 +33586,7 @@
         <v>4854473.390314418</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -31691,7 +33619,7 @@
         <v>4847392.783414418</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -31724,7 +33652,7 @@
         <v>4564282.578025056</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32252,7 +34180,7 @@
         <v>5015563.220925055</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32483,7 +34411,7 @@
         <v>4641651.373225056</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32516,7 +34444,7 @@
         <v>4641651.373225056</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32582,7 +34510,7 @@
         <v>4639939.265325056</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32615,7 +34543,7 @@
         <v>4635143.645125057</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32648,7 +34576,7 @@
         <v>4626826.013125056</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32714,7 +34642,7 @@
         <v>4696560.190525057</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -35981,7 +37909,7 @@
         <v>2302535.858325058</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36014,7 +37942,7 @@
         <v>2348120.712025058</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36047,7 +37975,7 @@
         <v>2332673.898625058</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -36080,7 +38008,7 @@
         <v>1915242.250525058</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
